--- a/resources/experiment 1/metrics/MAPE/upto time/Ceguera (UPTO).xlsx
+++ b/resources/experiment 1/metrics/MAPE/upto time/Ceguera (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>309039397161810.3</v>
+        <v>309673752764775.1</v>
       </c>
       <c r="C2" t="n">
-        <v>309039397161810.3</v>
+        <v>309673752764775.1</v>
       </c>
       <c r="D2" t="n">
-        <v>309039397161810.3</v>
+        <v>309673752764775.1</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5252719920509.125</v>
+        <v>5353635546107.014</v>
       </c>
       <c r="C3" t="n">
-        <v>5218906127712.813</v>
+        <v>5082660079774.208</v>
       </c>
       <c r="D3" t="n">
-        <v>5218906127712.813</v>
+        <v>6785061732764.529</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11864260970619.78</v>
+        <v>4016399359364.119</v>
       </c>
       <c r="C4" t="n">
-        <v>11864260970619.78</v>
+        <v>4228732044479.397</v>
       </c>
       <c r="D4" t="n">
-        <v>11864260970619.78</v>
+        <v>4150422191803.854</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22691812331118.04</v>
+        <v>28918929791744.3</v>
       </c>
       <c r="C5" t="n">
-        <v>20398435935792.54</v>
+        <v>87324136894645.14</v>
       </c>
       <c r="D5" t="n">
-        <v>20398435935792.54</v>
+        <v>83651572154793.67</v>
       </c>
     </row>
   </sheetData>
